--- a/26. ceramicPanel47/ceramicPanel47.xlsx
+++ b/26. ceramicPanel47/ceramicPanel47.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6285" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6315" uniqueCount="1257">
   <si>
     <t>personalOpinion68</t>
   </si>
@@ -3611,6 +3611,96 @@
   </si>
   <si>
     <t>Gene</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>Crypto</t>
+  </si>
+  <si>
+    <t>Augment</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Bake</t>
+  </si>
+  <si>
+    <t>Snap</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>Bud</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Everest</t>
+  </si>
+  <si>
+    <t>Motel</t>
+  </si>
+  <si>
+    <t>Shuttle</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Airline</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Copter</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Gel</t>
+  </si>
+  <si>
+    <t>Mate</t>
+  </si>
+  <si>
+    <t>Gloss</t>
+  </si>
+  <si>
+    <t>Globe</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Exhaust</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Vowel</t>
   </si>
   <si>
     <t>LCM</t>
@@ -3728,7 +3818,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3745,12 +3835,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor rgb="FFEA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
@@ -4200,7 +4284,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4376,12 +4460,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7215,32 +7293,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -7262,10 +7340,10 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="59"/>
+      <c r="W2" s="57"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -7329,10 +7407,10 @@
       <c r="V3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="59"/>
+      <c r="W3" s="57"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
@@ -7384,10 +7462,10 @@
       <c r="V4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="59"/>
+      <c r="W4" s="57"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="59"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="13">
         <v>1.0</v>
       </c>
@@ -7445,10 +7523,10 @@
       <c r="V5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="59"/>
+      <c r="W5" s="57"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="59"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="18">
         <v>2.0</v>
       </c>
@@ -7506,10 +7584,10 @@
       <c r="V6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="59"/>
+      <c r="W6" s="57"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="18">
         <v>3.0</v>
       </c>
@@ -7567,10 +7645,10 @@
       <c r="V7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="W7" s="59"/>
+      <c r="W7" s="57"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="18">
         <v>4.0</v>
       </c>
@@ -7628,10 +7706,10 @@
       <c r="V8" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="59"/>
+      <c r="W8" s="57"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="18">
         <v>5.0</v>
       </c>
@@ -7689,10 +7767,10 @@
       <c r="V9" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="59"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="18">
         <v>6.0</v>
       </c>
@@ -7750,10 +7828,10 @@
       <c r="V10" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="W10" s="59"/>
+      <c r="W10" s="57"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="18">
         <v>7.0</v>
       </c>
@@ -7811,10 +7889,10 @@
       <c r="V11" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="W11" s="59"/>
+      <c r="W11" s="57"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="59"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="18">
         <v>8.0</v>
       </c>
@@ -7872,10 +7950,10 @@
       <c r="V12" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="W12" s="59"/>
+      <c r="W12" s="57"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="59"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="18">
         <v>9.0</v>
       </c>
@@ -7933,10 +8011,10 @@
       <c r="V13" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="W13" s="59"/>
+      <c r="W13" s="57"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="59"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="18">
         <v>10.0</v>
       </c>
@@ -7994,10 +8072,10 @@
       <c r="V14" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="W14" s="59"/>
+      <c r="W14" s="57"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="59"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="18">
         <v>11.0</v>
       </c>
@@ -8055,10 +8133,10 @@
       <c r="V15" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="W15" s="59"/>
+      <c r="W15" s="57"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="59"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="18">
         <v>12.0</v>
       </c>
@@ -8116,10 +8194,10 @@
       <c r="V16" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="W16" s="59"/>
+      <c r="W16" s="57"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="18">
         <v>13.0</v>
       </c>
@@ -8177,10 +8255,10 @@
       <c r="V17" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="W17" s="59"/>
+      <c r="W17" s="57"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="18">
         <v>14.0</v>
       </c>
@@ -8238,10 +8316,10 @@
       <c r="V18" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="W18" s="59"/>
+      <c r="W18" s="57"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="59"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="18">
         <v>15.0</v>
       </c>
@@ -8299,10 +8377,10 @@
       <c r="V19" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="W19" s="59"/>
+      <c r="W19" s="57"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="59"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="18">
         <v>16.0</v>
       </c>
@@ -8360,10 +8438,10 @@
       <c r="V20" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="W20" s="59"/>
+      <c r="W20" s="57"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="59"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="18">
         <v>17.0</v>
       </c>
@@ -8421,10 +8499,10 @@
       <c r="V21" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="W21" s="59"/>
+      <c r="W21" s="57"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="59"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="18">
         <v>18.0</v>
       </c>
@@ -8482,10 +8560,10 @@
       <c r="V22" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="W22" s="59"/>
+      <c r="W22" s="57"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="59"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="18">
         <v>19.0</v>
       </c>
@@ -8543,10 +8621,10 @@
       <c r="V23" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="W23" s="59"/>
+      <c r="W23" s="57"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="59"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="18">
         <v>20.0</v>
       </c>
@@ -8604,10 +8682,10 @@
       <c r="V24" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="W24" s="59"/>
+      <c r="W24" s="57"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="59"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="18">
         <v>21.0</v>
       </c>
@@ -8665,10 +8743,10 @@
       <c r="V25" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="W25" s="59"/>
+      <c r="W25" s="57"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="59"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="18">
         <v>22.0</v>
       </c>
@@ -8726,10 +8804,10 @@
       <c r="V26" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="W26" s="59"/>
+      <c r="W26" s="57"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="59"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="18">
         <v>23.0</v>
       </c>
@@ -8787,10 +8865,10 @@
       <c r="V27" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="W27" s="59"/>
+      <c r="W27" s="57"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="59"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="18">
         <v>24.0</v>
       </c>
@@ -8848,10 +8926,10 @@
       <c r="V28" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="W28" s="59"/>
+      <c r="W28" s="57"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="59"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="18">
         <v>25.0</v>
       </c>
@@ -8909,10 +8987,10 @@
       <c r="V29" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="W29" s="59"/>
+      <c r="W29" s="57"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="59"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="23">
         <v>26.0</v>
       </c>
@@ -8970,10 +9048,10 @@
       <c r="V30" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="W30" s="59"/>
+      <c r="W30" s="57"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="59"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
       <c r="D31" s="30" t="s">
@@ -9025,10 +9103,10 @@
       <c r="V31" s="32" t="s">
         <v>515</v>
       </c>
-      <c r="W31" s="59"/>
+      <c r="W31" s="57"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="59"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="33" t="s">
         <v>516</v>
       </c>
@@ -9092,10 +9170,10 @@
       <c r="V32" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="W32" s="59"/>
+      <c r="W32" s="57"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="59"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -9117,10 +9195,10 @@
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
-      <c r="W33" s="59"/>
+      <c r="W33" s="57"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="59"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="37"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -9142,10 +9220,10 @@
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
-      <c r="W34" s="59"/>
+      <c r="W34" s="57"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="59"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="39" t="s">
         <v>3</v>
       </c>
@@ -9171,10 +9249,10 @@
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
-      <c r="W35" s="59"/>
+      <c r="W35" s="57"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="59"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="40" t="s">
         <v>525</v>
       </c>
@@ -9204,10 +9282,10 @@
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
-      <c r="W36" s="59"/>
+      <c r="W36" s="57"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="59"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="13" t="s">
         <v>526</v>
       </c>
@@ -9241,10 +9319,10 @@
       <c r="T37" s="36"/>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
-      <c r="W37" s="59"/>
+      <c r="W37" s="57"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="59"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="13" t="s">
         <v>529</v>
       </c>
@@ -9282,10 +9360,10 @@
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
-      <c r="W38" s="59"/>
+      <c r="W38" s="57"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="59"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="13" t="s">
         <v>149</v>
       </c>
@@ -9327,10 +9405,10 @@
       </c>
       <c r="U39" s="38"/>
       <c r="V39" s="38"/>
-      <c r="W39" s="59"/>
+      <c r="W39" s="57"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="59"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="13" t="s">
         <v>540</v>
       </c>
@@ -9376,10 +9454,10 @@
         <v>8</v>
       </c>
       <c r="V40" s="38"/>
-      <c r="W40" s="59"/>
+      <c r="W40" s="57"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="59"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="13" t="s">
         <v>549</v>
       </c>
@@ -9429,10 +9507,10 @@
       <c r="V41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="W41" s="59"/>
+      <c r="W41" s="57"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="59"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="47" t="s">
         <v>559</v>
       </c>
@@ -9482,10 +9560,10 @@
       <c r="V42" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="W42" s="59"/>
+      <c r="W42" s="57"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="59"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="33" t="s">
         <v>516</v>
       </c>
@@ -9535,32 +9613,32 @@
       <c r="V43" s="53" t="s">
         <v>522</v>
       </c>
-      <c r="W43" s="59"/>
+      <c r="W43" s="57"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -27561,32 +27639,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="57"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="3" t="s">
         <v>1166</v>
       </c>
@@ -27614,10 +27692,10 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="57"/>
+      <c r="W2" s="54"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -27681,10 +27759,10 @@
       <c r="V3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="57"/>
+      <c r="W3" s="54"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="57"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="8" t="s">
         <v>1169</v>
       </c>
@@ -27748,10 +27826,10 @@
       <c r="V4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="57"/>
+      <c r="W4" s="54"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="57"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="13">
         <v>1.0</v>
       </c>
@@ -27815,10 +27893,10 @@
       <c r="V5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="57"/>
+      <c r="W5" s="54"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="57"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="18">
         <v>2.0</v>
       </c>
@@ -27882,10 +27960,10 @@
       <c r="V6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="57"/>
+      <c r="W6" s="54"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="57"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="18">
         <v>3.0</v>
       </c>
@@ -27949,10 +28027,10 @@
       <c r="V7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="W7" s="57"/>
+      <c r="W7" s="54"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="57"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="18">
         <v>4.0</v>
       </c>
@@ -28016,10 +28094,10 @@
       <c r="V8" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="57"/>
+      <c r="W8" s="54"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="57"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="18">
         <v>5.0</v>
       </c>
@@ -28083,10 +28161,10 @@
       <c r="V9" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="57"/>
+      <c r="W9" s="54"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="57"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="18">
         <v>6.0</v>
       </c>
@@ -28150,10 +28228,10 @@
       <c r="V10" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="W10" s="57"/>
+      <c r="W10" s="54"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="57"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="18">
         <v>7.0</v>
       </c>
@@ -28217,10 +28295,10 @@
       <c r="V11" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="W11" s="57"/>
+      <c r="W11" s="54"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="57"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="18">
         <v>8.0</v>
       </c>
@@ -28284,14 +28362,16 @@
       <c r="V12" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="W12" s="57"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="57"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="18">
         <v>9.0</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>1197</v>
+      </c>
       <c r="D13" s="20" t="s">
         <v>174</v>
       </c>
@@ -28310,7 +28390,9 @@
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
-      <c r="J13" s="19"/>
+      <c r="J13" s="19" t="s">
+        <v>1198</v>
+      </c>
       <c r="K13" s="20" t="s">
         <v>180</v>
       </c>
@@ -28329,7 +28411,9 @@
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="19" t="s">
+        <v>1199</v>
+      </c>
       <c r="R13" s="20" t="s">
         <v>186</v>
       </c>
@@ -28345,14 +28429,16 @@
       <c r="V13" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="W13" s="57"/>
+      <c r="W13" s="54"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="18">
         <v>10.0</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>1200</v>
+      </c>
       <c r="D14" s="20" t="s">
         <v>192</v>
       </c>
@@ -28371,7 +28457,9 @@
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
-      <c r="J14" s="19"/>
+      <c r="J14" s="19" t="s">
+        <v>1201</v>
+      </c>
       <c r="K14" s="20" t="s">
         <v>198</v>
       </c>
@@ -28390,7 +28478,9 @@
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="19" t="s">
+        <v>1202</v>
+      </c>
       <c r="R14" s="20" t="s">
         <v>204</v>
       </c>
@@ -28406,14 +28496,16 @@
       <c r="V14" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="W14" s="57"/>
+      <c r="W14" s="54"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="57"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="18">
         <v>11.0</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>1203</v>
+      </c>
       <c r="D15" s="20" t="s">
         <v>210</v>
       </c>
@@ -28432,7 +28524,9 @@
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="19" t="s">
+        <v>1204</v>
+      </c>
       <c r="K15" s="20" t="s">
         <v>216</v>
       </c>
@@ -28451,7 +28545,9 @@
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="19" t="s">
+        <v>1205</v>
+      </c>
       <c r="R15" s="20" t="s">
         <v>222</v>
       </c>
@@ -28467,14 +28563,16 @@
       <c r="V15" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="W15" s="57"/>
+      <c r="W15" s="54"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="57"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="18">
         <v>12.0</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>1206</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>228</v>
       </c>
@@ -28493,7 +28591,9 @@
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
-      <c r="J16" s="19"/>
+      <c r="J16" s="19" t="s">
+        <v>1207</v>
+      </c>
       <c r="K16" s="20" t="s">
         <v>234</v>
       </c>
@@ -28512,7 +28612,9 @@
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="19" t="s">
+        <v>1208</v>
+      </c>
       <c r="R16" s="20" t="s">
         <v>240</v>
       </c>
@@ -28528,14 +28630,16 @@
       <c r="V16" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="W16" s="57"/>
+      <c r="W16" s="54"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="57"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="18">
         <v>13.0</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>1209</v>
+      </c>
       <c r="D17" s="20" t="s">
         <v>246</v>
       </c>
@@ -28554,7 +28658,9 @@
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
-      <c r="J17" s="19"/>
+      <c r="J17" s="19" t="s">
+        <v>1210</v>
+      </c>
       <c r="K17" s="20" t="s">
         <v>252</v>
       </c>
@@ -28573,7 +28679,9 @@
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="19" t="s">
+        <v>1211</v>
+      </c>
       <c r="R17" s="20" t="s">
         <v>258</v>
       </c>
@@ -28589,14 +28697,16 @@
       <c r="V17" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="W17" s="57"/>
+      <c r="W17" s="54"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="57"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="18">
         <v>14.0</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>1212</v>
+      </c>
       <c r="D18" s="20" t="s">
         <v>264</v>
       </c>
@@ -28615,7 +28725,9 @@
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="19" t="s">
+        <v>1213</v>
+      </c>
       <c r="K18" s="20" t="s">
         <v>270</v>
       </c>
@@ -28634,7 +28746,9 @@
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="19" t="s">
+        <v>1214</v>
+      </c>
       <c r="R18" s="20" t="s">
         <v>276</v>
       </c>
@@ -28650,14 +28764,16 @@
       <c r="V18" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="W18" s="57"/>
+      <c r="W18" s="54"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="18">
         <v>15.0</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>1215</v>
+      </c>
       <c r="D19" s="20" t="s">
         <v>282</v>
       </c>
@@ -28676,7 +28792,9 @@
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="19" t="s">
+        <v>1216</v>
+      </c>
       <c r="K19" s="20" t="s">
         <v>288</v>
       </c>
@@ -28695,7 +28813,9 @@
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
-      <c r="Q19" s="19"/>
+      <c r="Q19" s="19" t="s">
+        <v>1217</v>
+      </c>
       <c r="R19" s="20" t="s">
         <v>294</v>
       </c>
@@ -28711,14 +28831,16 @@
       <c r="V19" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="W19" s="57"/>
+      <c r="W19" s="54"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="18">
         <v>16.0</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>1218</v>
+      </c>
       <c r="D20" s="20" t="s">
         <v>300</v>
       </c>
@@ -28737,7 +28859,9 @@
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="19" t="s">
+        <v>1219</v>
+      </c>
       <c r="K20" s="20" t="s">
         <v>306</v>
       </c>
@@ -28756,7 +28880,9 @@
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
-      <c r="Q20" s="19"/>
+      <c r="Q20" s="19" t="s">
+        <v>1220</v>
+      </c>
       <c r="R20" s="20" t="s">
         <v>312</v>
       </c>
@@ -28772,14 +28898,16 @@
       <c r="V20" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="W20" s="57"/>
+      <c r="W20" s="54"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="57"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="18">
         <v>17.0</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>1221</v>
+      </c>
       <c r="D21" s="20" t="s">
         <v>318</v>
       </c>
@@ -28798,7 +28926,9 @@
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="19" t="s">
+        <v>1222</v>
+      </c>
       <c r="K21" s="20" t="s">
         <v>324</v>
       </c>
@@ -28817,7 +28947,9 @@
       <c r="P21" s="18">
         <v>17.0</v>
       </c>
-      <c r="Q21" s="19"/>
+      <c r="Q21" s="19" t="s">
+        <v>1223</v>
+      </c>
       <c r="R21" s="20" t="s">
         <v>330</v>
       </c>
@@ -28833,14 +28965,16 @@
       <c r="V21" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="W21" s="57"/>
+      <c r="W21" s="54"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="57"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="18">
         <v>18.0</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>1224</v>
+      </c>
       <c r="D22" s="20" t="s">
         <v>336</v>
       </c>
@@ -28859,7 +28993,9 @@
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J22" s="19" t="s">
+        <v>1225</v>
+      </c>
       <c r="K22" s="20" t="s">
         <v>342</v>
       </c>
@@ -28878,7 +29014,9 @@
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="19" t="s">
+        <v>1226</v>
+      </c>
       <c r="R22" s="20" t="s">
         <v>348</v>
       </c>
@@ -28894,15 +29032,15 @@
       <c r="V22" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="W22" s="57"/>
+      <c r="W22" s="54"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="57"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="18">
         <v>19.0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1197</v>
+        <v>1227</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>354</v>
@@ -28923,7 +29061,7 @@
         <v>19.0</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>1198</v>
+        <v>1228</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>360</v>
@@ -28944,7 +29082,7 @@
         <v>19.0</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>1199</v>
+        <v>1229</v>
       </c>
       <c r="R23" s="20" t="s">
         <v>366</v>
@@ -28961,15 +29099,15 @@
       <c r="V23" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="W23" s="57"/>
+      <c r="W23" s="54"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="57"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="18">
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1200</v>
+        <v>1230</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>372</v>
@@ -28990,7 +29128,7 @@
         <v>20.0</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>1201</v>
+        <v>1231</v>
       </c>
       <c r="K24" s="20" t="s">
         <v>378</v>
@@ -29011,7 +29149,7 @@
         <v>20.0</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>1202</v>
+        <v>1232</v>
       </c>
       <c r="R24" s="20" t="s">
         <v>384</v>
@@ -29028,15 +29166,15 @@
       <c r="V24" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="W24" s="57"/>
+      <c r="W24" s="54"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="57"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="18">
         <v>21.0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>1203</v>
+        <v>1233</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>390</v>
@@ -29057,7 +29195,7 @@
         <v>21.0</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>1204</v>
+        <v>1234</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>396</v>
@@ -29078,7 +29216,7 @@
         <v>21.0</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>1205</v>
+        <v>1235</v>
       </c>
       <c r="R25" s="20" t="s">
         <v>402</v>
@@ -29095,15 +29233,15 @@
       <c r="V25" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="W25" s="57"/>
+      <c r="W25" s="54"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="57"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="18">
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>1206</v>
+        <v>1236</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>408</v>
@@ -29124,7 +29262,7 @@
         <v>22.0</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>1207</v>
+        <v>1237</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>414</v>
@@ -29145,7 +29283,7 @@
         <v>22.0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>1208</v>
+        <v>1238</v>
       </c>
       <c r="R26" s="20" t="s">
         <v>420</v>
@@ -29162,15 +29300,15 @@
       <c r="V26" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="W26" s="57"/>
+      <c r="W26" s="54"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="57"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="18">
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>1209</v>
+        <v>1239</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>426</v>
@@ -29191,7 +29329,7 @@
         <v>23.0</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>1210</v>
+        <v>1240</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>432</v>
@@ -29212,7 +29350,7 @@
         <v>23.0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>1211</v>
+        <v>1241</v>
       </c>
       <c r="R27" s="20" t="s">
         <v>438</v>
@@ -29229,15 +29367,15 @@
       <c r="V27" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="W27" s="57"/>
+      <c r="W27" s="54"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="57"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="18">
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>1212</v>
+        <v>1242</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>444</v>
@@ -29258,7 +29396,7 @@
         <v>24.0</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>1213</v>
+        <v>1243</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>450</v>
@@ -29279,7 +29417,7 @@
         <v>24.0</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>1214</v>
+        <v>1244</v>
       </c>
       <c r="R28" s="20" t="s">
         <v>456</v>
@@ -29296,15 +29434,15 @@
       <c r="V28" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="W28" s="57"/>
+      <c r="W28" s="54"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="57"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="18">
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1215</v>
+        <v>1245</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>462</v>
@@ -29325,7 +29463,7 @@
         <v>25.0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>1216</v>
+        <v>1246</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>468</v>
@@ -29346,7 +29484,7 @@
         <v>25.0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>1217</v>
+        <v>1247</v>
       </c>
       <c r="R29" s="20" t="s">
         <v>474</v>
@@ -29363,15 +29501,15 @@
       <c r="V29" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="W29" s="57"/>
+      <c r="W29" s="54"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="57"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="23">
         <v>26.0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1218</v>
+        <v>1248</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>480</v>
@@ -29392,7 +29530,7 @@
         <v>26.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>1219</v>
+        <v>1249</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>486</v>
@@ -29413,7 +29551,7 @@
         <v>26.0</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>1220</v>
+        <v>1250</v>
       </c>
       <c r="R30" s="25" t="s">
         <v>492</v>
@@ -29430,15 +29568,15 @@
       <c r="V30" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="W30" s="57"/>
+      <c r="W30" s="54"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="57"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="28" t="s">
-        <v>1221</v>
+        <v>1251</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>1222</v>
+        <v>1252</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>499</v>
@@ -29456,10 +29594,10 @@
         <v>503</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>1221</v>
+        <v>1251</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>1223</v>
+        <v>1253</v>
       </c>
       <c r="K31" s="30" t="s">
         <v>505</v>
@@ -29477,10 +29615,10 @@
         <v>509</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>1221</v>
+        <v>1251</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>1224</v>
+        <v>1254</v>
       </c>
       <c r="R31" s="30" t="s">
         <v>511</v>
@@ -29497,10 +29635,10 @@
       <c r="V31" s="32" t="s">
         <v>515</v>
       </c>
-      <c r="W31" s="57"/>
+      <c r="W31" s="54"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="57"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="33" t="s">
         <v>516</v>
       </c>
@@ -29564,10 +29702,10 @@
       <c r="V32" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="W32" s="57"/>
+      <c r="W32" s="54"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="57"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -29589,12 +29727,12 @@
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
-      <c r="W33" s="57"/>
+      <c r="W33" s="54"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="57"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="37" t="s">
-        <v>1225</v>
+        <v>1255</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -29610,7 +29748,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>1226</v>
+        <v>1256</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -29618,10 +29756,10 @@
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
-      <c r="W34" s="57"/>
+      <c r="W34" s="54"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="57"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="39" t="s">
         <v>3</v>
       </c>
@@ -29647,10 +29785,10 @@
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
-      <c r="W35" s="57"/>
+      <c r="W35" s="54"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="57"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="40" t="s">
         <v>525</v>
       </c>
@@ -29680,10 +29818,10 @@
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
-      <c r="W36" s="57"/>
+      <c r="W36" s="54"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="57"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="13" t="s">
         <v>526</v>
       </c>
@@ -29717,10 +29855,10 @@
       <c r="T37" s="36"/>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
-      <c r="W37" s="57"/>
+      <c r="W37" s="54"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="57"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="13" t="s">
         <v>529</v>
       </c>
@@ -29758,10 +29896,10 @@
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
-      <c r="W38" s="57"/>
+      <c r="W38" s="54"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="57"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="13" t="s">
         <v>149</v>
       </c>
@@ -29803,10 +29941,10 @@
       </c>
       <c r="U39" s="38"/>
       <c r="V39" s="38"/>
-      <c r="W39" s="57"/>
+      <c r="W39" s="54"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="57"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="13" t="s">
         <v>540</v>
       </c>
@@ -29852,10 +29990,10 @@
         <v>8</v>
       </c>
       <c r="V40" s="38"/>
-      <c r="W40" s="57"/>
+      <c r="W40" s="54"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="57"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="13" t="s">
         <v>549</v>
       </c>
@@ -29905,10 +30043,10 @@
       <c r="V41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="W41" s="57"/>
+      <c r="W41" s="54"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="57"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="47" t="s">
         <v>559</v>
       </c>
@@ -29958,10 +30096,10 @@
       <c r="V42" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="W42" s="57"/>
+      <c r="W42" s="54"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="57"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="33" t="s">
         <v>516</v>
       </c>
@@ -30011,32 +30149,32 @@
       <c r="V43" s="53" t="s">
         <v>522</v>
       </c>
-      <c r="W43" s="57"/>
+      <c r="W43" s="54"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/26. ceramicPanel47/ceramicPanel47.xlsx
+++ b/26. ceramicPanel47/ceramicPanel47.xlsx
@@ -12,7 +12,8 @@
     <sheet state="visible" name="7. inspirationalYear70" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="8. binaryLizard49" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="9. objectParadise50" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="26. cashPack31" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="10. noSingular45" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="26. cashPack31" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6315" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6866" uniqueCount="1262">
   <si>
     <t>personalOpinion68</t>
   </si>
@@ -3791,6 +3792,21 @@
   </si>
   <si>
     <t>hashCountry47</t>
+  </si>
+  <si>
+    <t>interestingRange58</t>
+  </si>
+  <si>
+    <t>distributeOnce50</t>
+  </si>
+  <si>
+    <t>cutePresentation61</t>
+  </si>
+  <si>
+    <t>frontEndAlgorithm70</t>
+  </si>
+  <si>
+    <t>backEndTechnique57</t>
   </si>
 </sst>
 </file>
@@ -3818,7 +3834,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3835,6 +3851,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
@@ -4284,7 +4306,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4462,6 +4484,12 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4475,6 +4503,10 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -7319,21 +7351,27 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="57"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>1257</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>1258</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>1259</v>
+      </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -9199,7 +9237,9 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="57"/>
-      <c r="B34" s="37"/>
+      <c r="B34" s="37" t="s">
+        <v>1260</v>
+      </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -9213,7 +9253,9 @@
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
-      <c r="P34" s="37"/>
+      <c r="P34" s="37" t="s">
+        <v>1261</v>
+      </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
@@ -9639,6 +9681,2383 @@
       <c r="U44" s="57"/>
       <c r="V44" s="57"/>
       <c r="W44" s="57"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.75"/>
+    <col customWidth="1" min="2" max="2" width="22.63"/>
+    <col customWidth="1" min="3" max="3" width="12.63"/>
+    <col customWidth="1" min="9" max="9" width="22.63"/>
+    <col customWidth="1" min="10" max="10" width="12.63"/>
+    <col customWidth="1" min="16" max="16" width="22.63"/>
+    <col customWidth="1" min="17" max="17" width="12.63"/>
+    <col customWidth="1" min="23" max="23" width="2.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="59"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="59"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="59"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="59"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="59"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="59"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="59"/>
+      <c r="B6" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="59"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="59"/>
+      <c r="B7" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7" s="59"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="59"/>
+      <c r="B8" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="V8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="W8" s="59"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" s="59"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="59"/>
+      <c r="B10" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="W10" s="59"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="59"/>
+      <c r="B11" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="P11" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="V11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="W11" s="59"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="59"/>
+      <c r="B12" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="P12" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="V12" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="W12" s="59"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="59"/>
+      <c r="B13" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="W13" s="59"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="59"/>
+      <c r="B14" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="T14" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="U14" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="V14" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="W14" s="59"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="59"/>
+      <c r="B15" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="P15" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="V15" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="W15" s="59"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="59"/>
+      <c r="B16" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="I16" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="V16" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="W16" s="59"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="I17" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="P17" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="V17" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="W17" s="59"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="59"/>
+      <c r="B18" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="I18" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="P18" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="S18" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="T18" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="U18" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="V18" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="W18" s="59"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="59"/>
+      <c r="B19" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I19" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="P19" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="V19" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="W19" s="59"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="59"/>
+      <c r="B20" s="18">
+        <v>16.0</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I20" s="18">
+        <v>16.0</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="P20" s="18">
+        <v>16.0</v>
+      </c>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="W20" s="59"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="59"/>
+      <c r="B21" s="18">
+        <v>17.0</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" s="18">
+        <v>17.0</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="P21" s="18">
+        <v>17.0</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="V21" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="W21" s="59"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="59"/>
+      <c r="B22" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="P22" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="V22" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="W22" s="59"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="59"/>
+      <c r="B23" s="18">
+        <v>19.0</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="I23" s="18">
+        <v>19.0</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="P23" s="18">
+        <v>19.0</v>
+      </c>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="V23" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="W23" s="59"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="59"/>
+      <c r="B24" s="18">
+        <v>20.0</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="I24" s="18">
+        <v>20.0</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="P24" s="18">
+        <v>20.0</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="V24" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="W24" s="59"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="59"/>
+      <c r="B25" s="18">
+        <v>21.0</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="I25" s="18">
+        <v>21.0</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="P25" s="18">
+        <v>21.0</v>
+      </c>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="V25" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="W25" s="59"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="59"/>
+      <c r="B26" s="18">
+        <v>22.0</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="I26" s="18">
+        <v>22.0</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="P26" s="18">
+        <v>22.0</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="U26" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="V26" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="W26" s="59"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="59"/>
+      <c r="B27" s="18">
+        <v>23.0</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="I27" s="18">
+        <v>23.0</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="P27" s="18">
+        <v>23.0</v>
+      </c>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="W27" s="59"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="59"/>
+      <c r="B28" s="18">
+        <v>24.0</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="I28" s="18">
+        <v>24.0</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="P28" s="18">
+        <v>24.0</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="S28" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="T28" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="V28" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="W28" s="59"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="59"/>
+      <c r="B29" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="I29" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="P29" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="V29" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="W29" s="59"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="59"/>
+      <c r="B30" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="I30" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="P30" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="S30" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="T30" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="U30" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="V30" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="W30" s="59"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="59"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="S31" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="T31" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="U31" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="V31" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="W31" s="59"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="59"/>
+      <c r="B32" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q32" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="R32" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="S32" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="T32" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="U32" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="V32" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="W32" s="59"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="59"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="59"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="59"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="59"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="59"/>
+      <c r="B35" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="59"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="59"/>
+      <c r="B36" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q36" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="59"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="59"/>
+      <c r="B37" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q37" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="R37" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37" s="38"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="59"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="59"/>
+      <c r="B38" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q38" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="R38" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="S38" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="59"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="59"/>
+      <c r="B39" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q39" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="R39" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="S39" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="T39" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="59"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="59"/>
+      <c r="B40" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="38"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q40" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="R40" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="S40" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="T40" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="U40" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="V40" s="38"/>
+      <c r="W40" s="59"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="59"/>
+      <c r="B41" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="45"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q41" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="R41" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="S41" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="T41" s="46" t="s">
+        <v>557</v>
+      </c>
+      <c r="U41" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="V41" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W41" s="59"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="59"/>
+      <c r="B42" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="I42" s="45"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="47" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q42" s="48" t="s">
+        <v>565</v>
+      </c>
+      <c r="R42" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="S42" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="T42" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="U42" s="50" t="s">
+        <v>568</v>
+      </c>
+      <c r="V42" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="W42" s="59"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="59"/>
+      <c r="B43" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q43" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="R43" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="S43" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="T43" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="U43" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="V43" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="W43" s="59"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/26. ceramicPanel47/ceramicPanel47.xlsx
+++ b/26. ceramicPanel47/ceramicPanel47.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6866" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6872" uniqueCount="1264">
   <si>
     <t>personalOpinion68</t>
   </si>
@@ -3801,6 +3801,12 @@
   </si>
   <si>
     <t>cutePresentation61</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>off</t>
   </si>
   <si>
     <t>frontEndAlgorithm70</t>
@@ -7449,7 +7455,9 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="57"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>1260</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
         <v>12</v>
@@ -7466,7 +7474,9 @@
       <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>1260</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="10" t="s">
         <v>18</v>
@@ -7483,7 +7493,9 @@
       <c r="O4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>1260</v>
+      </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="10" t="s">
         <v>24</v>
@@ -9090,7 +9102,9 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="57"/>
-      <c r="B31" s="28"/>
+      <c r="B31" s="28" t="s">
+        <v>1261</v>
+      </c>
       <c r="C31" s="29"/>
       <c r="D31" s="30" t="s">
         <v>499</v>
@@ -9107,7 +9121,9 @@
       <c r="H31" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="I31" s="28"/>
+      <c r="I31" s="28" t="s">
+        <v>1261</v>
+      </c>
       <c r="J31" s="29"/>
       <c r="K31" s="30" t="s">
         <v>505</v>
@@ -9124,7 +9140,9 @@
       <c r="O31" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="P31" s="28"/>
+      <c r="P31" s="28" t="s">
+        <v>1261</v>
+      </c>
       <c r="Q31" s="29"/>
       <c r="R31" s="30" t="s">
         <v>511</v>
@@ -9238,7 +9256,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="57"/>
       <c r="B34" s="37" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -9254,7 +9272,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>

--- a/26. ceramicPanel47/ceramicPanel47.xlsx
+++ b/26. ceramicPanel47/ceramicPanel47.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6872" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6878" uniqueCount="1269">
   <si>
     <t>personalOpinion68</t>
   </si>
@@ -3806,7 +3806,22 @@
     <t>on</t>
   </si>
   <si>
+    <t>handsome</t>
+  </si>
+  <si>
+    <t>mature</t>
+  </si>
+  <si>
+    <t>pant</t>
+  </si>
+  <si>
     <t>off</t>
+  </si>
+  <si>
+    <t>metre</t>
+  </si>
+  <si>
+    <t>press</t>
   </si>
   <si>
     <t>frontEndAlgorithm70</t>
@@ -7458,7 +7473,9 @@
       <c r="B4" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>1261</v>
+      </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
@@ -7477,7 +7494,9 @@
       <c r="I4" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>1262</v>
+      </c>
       <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
@@ -7496,7 +7515,9 @@
       <c r="P4" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="9" t="s">
+        <v>1263</v>
+      </c>
       <c r="R4" s="10" t="s">
         <v>24</v>
       </c>
@@ -9103,9 +9124,11 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="57"/>
       <c r="B31" s="28" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C31" s="29"/>
+        <v>1264</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>567</v>
+      </c>
       <c r="D31" s="30" t="s">
         <v>499</v>
       </c>
@@ -9122,9 +9145,11 @@
         <v>503</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J31" s="29"/>
+        <v>1264</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>1265</v>
+      </c>
       <c r="K31" s="30" t="s">
         <v>505</v>
       </c>
@@ -9141,9 +9166,11 @@
         <v>509</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>1261</v>
-      </c>
-      <c r="Q31" s="29"/>
+        <v>1264</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>1266</v>
+      </c>
       <c r="R31" s="30" t="s">
         <v>511</v>
       </c>
@@ -9256,7 +9283,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="57"/>
       <c r="B34" s="37" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -9272,7 +9299,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>

--- a/26. ceramicPanel47/ceramicPanel47.xlsx
+++ b/26. ceramicPanel47/ceramicPanel47.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6878" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6908" uniqueCount="1295">
   <si>
     <t>personalOpinion68</t>
   </si>
@@ -3813,6 +3813,84 @@
   </si>
   <si>
     <t>pant</t>
+  </si>
+  <si>
+    <t>notation</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>alliance</t>
+  </si>
+  <si>
+    <t>groom</t>
+  </si>
+  <si>
+    <t>glamour</t>
+  </si>
+  <si>
+    <t>colony</t>
+  </si>
+  <si>
+    <t>serum</t>
+  </si>
+  <si>
+    <t>flare</t>
+  </si>
+  <si>
+    <t>burst</t>
+  </si>
+  <si>
+    <t>fiscal</t>
+  </si>
+  <si>
+    <t>feasible</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>sentence</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>fidget</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>chant</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>indent</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>parenthesis</t>
+  </si>
+  <si>
+    <t>bounce</t>
+  </si>
+  <si>
+    <t>moisture</t>
+  </si>
+  <si>
+    <t>pressure</t>
   </si>
   <si>
     <t>off</t>
@@ -7540,7 +7618,9 @@
       <c r="B5" s="13">
         <v>1.0</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>1264</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>30</v>
       </c>
@@ -7559,7 +7639,9 @@
       <c r="I5" s="13">
         <v>1.0</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>1265</v>
+      </c>
       <c r="K5" s="15" t="s">
         <v>36</v>
       </c>
@@ -7578,7 +7660,9 @@
       <c r="P5" s="13">
         <v>1.0</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="14" t="s">
+        <v>1266</v>
+      </c>
       <c r="R5" s="15" t="s">
         <v>42</v>
       </c>
@@ -7601,7 +7685,9 @@
       <c r="B6" s="18">
         <v>2.0</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>1267</v>
+      </c>
       <c r="D6" s="20" t="s">
         <v>48</v>
       </c>
@@ -7620,7 +7706,9 @@
       <c r="I6" s="18">
         <v>2.0</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>1268</v>
+      </c>
       <c r="K6" s="20" t="s">
         <v>54</v>
       </c>
@@ -7639,7 +7727,9 @@
       <c r="P6" s="18">
         <v>2.0</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="19" t="s">
+        <v>1269</v>
+      </c>
       <c r="R6" s="20" t="s">
         <v>60</v>
       </c>
@@ -7662,7 +7752,9 @@
       <c r="B7" s="18">
         <v>3.0</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>1270</v>
+      </c>
       <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
@@ -7681,7 +7773,9 @@
       <c r="I7" s="18">
         <v>3.0</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>1271</v>
+      </c>
       <c r="K7" s="20" t="s">
         <v>72</v>
       </c>
@@ -7700,7 +7794,9 @@
       <c r="P7" s="18">
         <v>3.0</v>
       </c>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="19" t="s">
+        <v>1272</v>
+      </c>
       <c r="R7" s="20" t="s">
         <v>78</v>
       </c>
@@ -7723,7 +7819,9 @@
       <c r="B8" s="18">
         <v>4.0</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>1273</v>
+      </c>
       <c r="D8" s="20" t="s">
         <v>84</v>
       </c>
@@ -7742,7 +7840,9 @@
       <c r="I8" s="18">
         <v>4.0</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="19" t="s">
+        <v>1274</v>
+      </c>
       <c r="K8" s="20" t="s">
         <v>90</v>
       </c>
@@ -7761,7 +7861,9 @@
       <c r="P8" s="18">
         <v>4.0</v>
       </c>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="19" t="s">
+        <v>963</v>
+      </c>
       <c r="R8" s="20" t="s">
         <v>96</v>
       </c>
@@ -7784,7 +7886,9 @@
       <c r="B9" s="18">
         <v>5.0</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" s="20" t="s">
         <v>102</v>
       </c>
@@ -7803,7 +7907,9 @@
       <c r="I9" s="18">
         <v>5.0</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="19" t="s">
+        <v>1275</v>
+      </c>
       <c r="K9" s="20" t="s">
         <v>108</v>
       </c>
@@ -7822,7 +7928,9 @@
       <c r="P9" s="18">
         <v>5.0</v>
       </c>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="19" t="s">
+        <v>681</v>
+      </c>
       <c r="R9" s="20" t="s">
         <v>114</v>
       </c>
@@ -8821,7 +8929,9 @@
       <c r="B26" s="18">
         <v>22.0</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>1276</v>
+      </c>
       <c r="D26" s="20" t="s">
         <v>408</v>
       </c>
@@ -8840,7 +8950,9 @@
       <c r="I26" s="18">
         <v>22.0</v>
       </c>
-      <c r="J26" s="19"/>
+      <c r="J26" s="19" t="s">
+        <v>1277</v>
+      </c>
       <c r="K26" s="20" t="s">
         <v>414</v>
       </c>
@@ -8859,7 +8971,9 @@
       <c r="P26" s="18">
         <v>22.0</v>
       </c>
-      <c r="Q26" s="19"/>
+      <c r="Q26" s="19" t="s">
+        <v>1278</v>
+      </c>
       <c r="R26" s="20" t="s">
         <v>420</v>
       </c>
@@ -8882,7 +8996,9 @@
       <c r="B27" s="18">
         <v>23.0</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>1279</v>
+      </c>
       <c r="D27" s="20" t="s">
         <v>426</v>
       </c>
@@ -8901,7 +9017,9 @@
       <c r="I27" s="18">
         <v>23.0</v>
       </c>
-      <c r="J27" s="19"/>
+      <c r="J27" s="19" t="s">
+        <v>1280</v>
+      </c>
       <c r="K27" s="20" t="s">
         <v>432</v>
       </c>
@@ -8920,7 +9038,9 @@
       <c r="P27" s="18">
         <v>23.0</v>
       </c>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="19" t="s">
+        <v>1281</v>
+      </c>
       <c r="R27" s="20" t="s">
         <v>438</v>
       </c>
@@ -8943,7 +9063,9 @@
       <c r="B28" s="18">
         <v>24.0</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>1282</v>
+      </c>
       <c r="D28" s="20" t="s">
         <v>444</v>
       </c>
@@ -8962,7 +9084,9 @@
       <c r="I28" s="18">
         <v>24.0</v>
       </c>
-      <c r="J28" s="19"/>
+      <c r="J28" s="19" t="s">
+        <v>1283</v>
+      </c>
       <c r="K28" s="20" t="s">
         <v>450</v>
       </c>
@@ -8981,7 +9105,9 @@
       <c r="P28" s="18">
         <v>24.0</v>
       </c>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="19" t="s">
+        <v>1044</v>
+      </c>
       <c r="R28" s="20" t="s">
         <v>456</v>
       </c>
@@ -9004,7 +9130,9 @@
       <c r="B29" s="18">
         <v>25.0</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>1284</v>
+      </c>
       <c r="D29" s="20" t="s">
         <v>462</v>
       </c>
@@ -9023,7 +9151,9 @@
       <c r="I29" s="18">
         <v>25.0</v>
       </c>
-      <c r="J29" s="19"/>
+      <c r="J29" s="19" t="s">
+        <v>1285</v>
+      </c>
       <c r="K29" s="20" t="s">
         <v>468</v>
       </c>
@@ -9042,7 +9172,9 @@
       <c r="P29" s="18">
         <v>25.0</v>
       </c>
-      <c r="Q29" s="19"/>
+      <c r="Q29" s="19" t="s">
+        <v>1286</v>
+      </c>
       <c r="R29" s="20" t="s">
         <v>474</v>
       </c>
@@ -9065,7 +9197,9 @@
       <c r="B30" s="23">
         <v>26.0</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="24" t="s">
+        <v>1287</v>
+      </c>
       <c r="D30" s="25" t="s">
         <v>480</v>
       </c>
@@ -9084,7 +9218,9 @@
       <c r="I30" s="23">
         <v>26.0</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="24" t="s">
+        <v>1288</v>
+      </c>
       <c r="K30" s="25" t="s">
         <v>486</v>
       </c>
@@ -9103,7 +9239,9 @@
       <c r="P30" s="23">
         <v>26.0</v>
       </c>
-      <c r="Q30" s="24"/>
+      <c r="Q30" s="24" t="s">
+        <v>1289</v>
+      </c>
       <c r="R30" s="25" t="s">
         <v>492</v>
       </c>
@@ -9124,7 +9262,7 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="57"/>
       <c r="B31" s="28" t="s">
-        <v>1264</v>
+        <v>1290</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>567</v>
@@ -9145,10 +9283,10 @@
         <v>503</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>1264</v>
+        <v>1290</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>1265</v>
+        <v>1291</v>
       </c>
       <c r="K31" s="30" t="s">
         <v>505</v>
@@ -9166,10 +9304,10 @@
         <v>509</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>1264</v>
+        <v>1290</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>1266</v>
+        <v>1292</v>
       </c>
       <c r="R31" s="30" t="s">
         <v>511</v>
@@ -9283,7 +9421,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="57"/>
       <c r="B34" s="37" t="s">
-        <v>1267</v>
+        <v>1293</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -9299,7 +9437,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>1268</v>
+        <v>1294</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>

--- a/26. ceramicPanel47/ceramicPanel47.xlsx
+++ b/26. ceramicPanel47/ceramicPanel47.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6908" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6920" uniqueCount="1306">
   <si>
     <t>personalOpinion68</t>
   </si>
@@ -3849,6 +3849,39 @@
   </si>
   <si>
     <t>site</t>
+  </si>
+  <si>
+    <t>chorus</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>vibrate</t>
+  </si>
+  <si>
+    <t>mortal</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>deadlock</t>
+  </si>
+  <si>
+    <t>truncate</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>bang</t>
   </si>
   <si>
     <t>number</t>
@@ -7953,7 +7986,9 @@
       <c r="B10" s="18">
         <v>6.0</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>1276</v>
+      </c>
       <c r="D10" s="20" t="s">
         <v>120</v>
       </c>
@@ -7972,7 +8007,9 @@
       <c r="I10" s="18">
         <v>6.0</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="J10" s="19" t="s">
+        <v>1277</v>
+      </c>
       <c r="K10" s="20" t="s">
         <v>126</v>
       </c>
@@ -7991,7 +8028,9 @@
       <c r="P10" s="18">
         <v>6.0</v>
       </c>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="19" t="s">
+        <v>1278</v>
+      </c>
       <c r="R10" s="20" t="s">
         <v>132</v>
       </c>
@@ -8014,7 +8053,9 @@
       <c r="B11" s="18">
         <v>7.0</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>1279</v>
+      </c>
       <c r="D11" s="20" t="s">
         <v>138</v>
       </c>
@@ -8033,7 +8074,9 @@
       <c r="I11" s="18">
         <v>7.0</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="19" t="s">
+        <v>1280</v>
+      </c>
       <c r="K11" s="20" t="s">
         <v>144</v>
       </c>
@@ -8052,7 +8095,9 @@
       <c r="P11" s="18">
         <v>7.0</v>
       </c>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="19" t="s">
+        <v>1281</v>
+      </c>
       <c r="R11" s="20" t="s">
         <v>150</v>
       </c>
@@ -8807,7 +8852,9 @@
       <c r="B24" s="18">
         <v>20.0</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="19" t="s">
+        <v>1282</v>
+      </c>
       <c r="D24" s="20" t="s">
         <v>372</v>
       </c>
@@ -8826,7 +8873,9 @@
       <c r="I24" s="18">
         <v>20.0</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="J24" s="19" t="s">
+        <v>1283</v>
+      </c>
       <c r="K24" s="20" t="s">
         <v>378</v>
       </c>
@@ -8845,7 +8894,9 @@
       <c r="P24" s="18">
         <v>20.0</v>
       </c>
-      <c r="Q24" s="19"/>
+      <c r="Q24" s="19" t="s">
+        <v>1284</v>
+      </c>
       <c r="R24" s="20" t="s">
         <v>384</v>
       </c>
@@ -8868,7 +8919,9 @@
       <c r="B25" s="18">
         <v>21.0</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>688</v>
+      </c>
       <c r="D25" s="20" t="s">
         <v>390</v>
       </c>
@@ -8887,7 +8940,9 @@
       <c r="I25" s="18">
         <v>21.0</v>
       </c>
-      <c r="J25" s="19"/>
+      <c r="J25" s="19" t="s">
+        <v>1285</v>
+      </c>
       <c r="K25" s="20" t="s">
         <v>396</v>
       </c>
@@ -8906,7 +8961,9 @@
       <c r="P25" s="18">
         <v>21.0</v>
       </c>
-      <c r="Q25" s="19"/>
+      <c r="Q25" s="19" t="s">
+        <v>1286</v>
+      </c>
       <c r="R25" s="20" t="s">
         <v>402</v>
       </c>
@@ -8930,7 +8987,7 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>408</v>
@@ -8951,7 +9008,7 @@
         <v>22.0</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>1277</v>
+        <v>1288</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>414</v>
@@ -8972,7 +9029,7 @@
         <v>22.0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="R26" s="20" t="s">
         <v>420</v>
@@ -8997,7 +9054,7 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>426</v>
@@ -9018,7 +9075,7 @@
         <v>23.0</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>432</v>
@@ -9039,7 +9096,7 @@
         <v>23.0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>1281</v>
+        <v>1292</v>
       </c>
       <c r="R27" s="20" t="s">
         <v>438</v>
@@ -9064,7 +9121,7 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>1282</v>
+        <v>1293</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>444</v>
@@ -9085,7 +9142,7 @@
         <v>24.0</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>1283</v>
+        <v>1294</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>450</v>
@@ -9131,7 +9188,7 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>462</v>
@@ -9152,7 +9209,7 @@
         <v>25.0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>468</v>
@@ -9173,7 +9230,7 @@
         <v>25.0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
       <c r="R29" s="20" t="s">
         <v>474</v>
@@ -9198,7 +9255,7 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1287</v>
+        <v>1298</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>480</v>
@@ -9219,7 +9276,7 @@
         <v>26.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>1288</v>
+        <v>1299</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>486</v>
@@ -9240,7 +9297,7 @@
         <v>26.0</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>1289</v>
+        <v>1300</v>
       </c>
       <c r="R30" s="25" t="s">
         <v>492</v>
@@ -9262,7 +9319,7 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="57"/>
       <c r="B31" s="28" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>567</v>
@@ -9283,10 +9340,10 @@
         <v>503</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>1291</v>
+        <v>1302</v>
       </c>
       <c r="K31" s="30" t="s">
         <v>505</v>
@@ -9304,10 +9361,10 @@
         <v>509</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="R31" s="30" t="s">
         <v>511</v>
@@ -9421,7 +9478,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="57"/>
       <c r="B34" s="37" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -9437,7 +9494,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>

--- a/26. ceramicPanel47/ceramicPanel47.xlsx
+++ b/26. ceramicPanel47/ceramicPanel47.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6920" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6944" uniqueCount="1327">
   <si>
     <t>personalOpinion68</t>
   </si>
@@ -3867,6 +3867,69 @@
   </si>
   <si>
     <t>mortal</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
+    <t>marathon</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>bookmark</t>
+  </si>
+  <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>dataflow</t>
+  </si>
+  <si>
+    <t>syllabus</t>
+  </si>
+  <si>
+    <t>rhythm</t>
+  </si>
+  <si>
+    <t>horn</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>climax</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>lubricant</t>
+  </si>
+  <si>
+    <t>wand</t>
+  </si>
+  <si>
+    <t>tunnel</t>
+  </si>
+  <si>
+    <t>mock</t>
+  </si>
+  <si>
+    <t>grill</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>velvet</t>
+  </si>
+  <si>
+    <t>metaphor</t>
   </si>
   <si>
     <t>emergency</t>
@@ -8120,7 +8183,9 @@
       <c r="B12" s="18">
         <v>8.0</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>1282</v>
+      </c>
       <c r="D12" s="20" t="s">
         <v>156</v>
       </c>
@@ -8139,7 +8204,9 @@
       <c r="I12" s="18">
         <v>8.0</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="19" t="s">
+        <v>1283</v>
+      </c>
       <c r="K12" s="20" t="s">
         <v>162</v>
       </c>
@@ -8158,7 +8225,9 @@
       <c r="P12" s="18">
         <v>8.0</v>
       </c>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="19" t="s">
+        <v>1284</v>
+      </c>
       <c r="R12" s="20" t="s">
         <v>168</v>
       </c>
@@ -8181,7 +8250,9 @@
       <c r="B13" s="18">
         <v>9.0</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>1285</v>
+      </c>
       <c r="D13" s="20" t="s">
         <v>174</v>
       </c>
@@ -8200,7 +8271,9 @@
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
-      <c r="J13" s="19"/>
+      <c r="J13" s="19" t="s">
+        <v>1286</v>
+      </c>
       <c r="K13" s="20" t="s">
         <v>180</v>
       </c>
@@ -8219,7 +8292,9 @@
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="19" t="s">
+        <v>1287</v>
+      </c>
       <c r="R13" s="20" t="s">
         <v>186</v>
       </c>
@@ -8242,7 +8317,9 @@
       <c r="B14" s="18">
         <v>10.0</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>1288</v>
+      </c>
       <c r="D14" s="20" t="s">
         <v>192</v>
       </c>
@@ -8261,7 +8338,9 @@
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
-      <c r="J14" s="19"/>
+      <c r="J14" s="19" t="s">
+        <v>903</v>
+      </c>
       <c r="K14" s="20" t="s">
         <v>198</v>
       </c>
@@ -8280,7 +8359,9 @@
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="19" t="s">
+        <v>1289</v>
+      </c>
       <c r="R14" s="20" t="s">
         <v>204</v>
       </c>
@@ -8303,7 +8384,9 @@
       <c r="B15" s="18">
         <v>11.0</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>1290</v>
+      </c>
       <c r="D15" s="20" t="s">
         <v>210</v>
       </c>
@@ -8322,7 +8405,9 @@
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="19" t="s">
+        <v>1291</v>
+      </c>
       <c r="K15" s="20" t="s">
         <v>216</v>
       </c>
@@ -8341,7 +8426,9 @@
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="19" t="s">
+        <v>1292</v>
+      </c>
       <c r="R15" s="20" t="s">
         <v>222</v>
       </c>
@@ -8608,7 +8695,9 @@
       <c r="B20" s="18">
         <v>16.0</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>667</v>
+      </c>
       <c r="D20" s="20" t="s">
         <v>300</v>
       </c>
@@ -8627,7 +8716,9 @@
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="19" t="s">
+        <v>1293</v>
+      </c>
       <c r="K20" s="20" t="s">
         <v>306</v>
       </c>
@@ -8646,7 +8737,9 @@
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
-      <c r="Q20" s="19"/>
+      <c r="Q20" s="19" t="s">
+        <v>1294</v>
+      </c>
       <c r="R20" s="20" t="s">
         <v>312</v>
       </c>
@@ -8669,7 +8762,9 @@
       <c r="B21" s="18">
         <v>17.0</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>1295</v>
+      </c>
       <c r="D21" s="20" t="s">
         <v>318</v>
       </c>
@@ -8688,7 +8783,9 @@
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="19" t="s">
+        <v>424</v>
+      </c>
       <c r="K21" s="20" t="s">
         <v>324</v>
       </c>
@@ -8707,7 +8804,9 @@
       <c r="P21" s="18">
         <v>17.0</v>
       </c>
-      <c r="Q21" s="19"/>
+      <c r="Q21" s="19" t="s">
+        <v>1296</v>
+      </c>
       <c r="R21" s="20" t="s">
         <v>330</v>
       </c>
@@ -8730,7 +8829,9 @@
       <c r="B22" s="18">
         <v>18.0</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>1297</v>
+      </c>
       <c r="D22" s="20" t="s">
         <v>336</v>
       </c>
@@ -8749,7 +8850,9 @@
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J22" s="19" t="s">
+        <v>1298</v>
+      </c>
       <c r="K22" s="20" t="s">
         <v>342</v>
       </c>
@@ -8768,7 +8871,9 @@
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="19" t="s">
+        <v>1299</v>
+      </c>
       <c r="R22" s="20" t="s">
         <v>348</v>
       </c>
@@ -8791,7 +8896,9 @@
       <c r="B23" s="18">
         <v>19.0</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>1300</v>
+      </c>
       <c r="D23" s="20" t="s">
         <v>354</v>
       </c>
@@ -8810,7 +8917,9 @@
       <c r="I23" s="18">
         <v>19.0</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="19" t="s">
+        <v>1301</v>
+      </c>
       <c r="K23" s="20" t="s">
         <v>360</v>
       </c>
@@ -8829,7 +8938,9 @@
       <c r="P23" s="18">
         <v>19.0</v>
       </c>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="19" t="s">
+        <v>1302</v>
+      </c>
       <c r="R23" s="20" t="s">
         <v>366</v>
       </c>
@@ -8853,7 +8964,7 @@
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1282</v>
+        <v>1303</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>372</v>
@@ -8874,7 +8985,7 @@
         <v>20.0</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>1283</v>
+        <v>1304</v>
       </c>
       <c r="K24" s="20" t="s">
         <v>378</v>
@@ -8895,7 +9006,7 @@
         <v>20.0</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>1284</v>
+        <v>1305</v>
       </c>
       <c r="R24" s="20" t="s">
         <v>384</v>
@@ -8941,7 +9052,7 @@
         <v>21.0</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>1285</v>
+        <v>1306</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>396</v>
@@ -8962,7 +9073,7 @@
         <v>21.0</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>1286</v>
+        <v>1307</v>
       </c>
       <c r="R25" s="20" t="s">
         <v>402</v>
@@ -8987,7 +9098,7 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>1287</v>
+        <v>1308</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>408</v>
@@ -9008,7 +9119,7 @@
         <v>22.0</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>1288</v>
+        <v>1309</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>414</v>
@@ -9029,7 +9140,7 @@
         <v>22.0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>1289</v>
+        <v>1310</v>
       </c>
       <c r="R26" s="20" t="s">
         <v>420</v>
@@ -9054,7 +9165,7 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>1290</v>
+        <v>1311</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>426</v>
@@ -9075,7 +9186,7 @@
         <v>23.0</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>1291</v>
+        <v>1312</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>432</v>
@@ -9096,7 +9207,7 @@
         <v>23.0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>1292</v>
+        <v>1313</v>
       </c>
       <c r="R27" s="20" t="s">
         <v>438</v>
@@ -9121,7 +9232,7 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>1293</v>
+        <v>1314</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>444</v>
@@ -9142,7 +9253,7 @@
         <v>24.0</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>1294</v>
+        <v>1315</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>450</v>
@@ -9188,7 +9299,7 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1295</v>
+        <v>1316</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>462</v>
@@ -9209,7 +9320,7 @@
         <v>25.0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>1296</v>
+        <v>1317</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>468</v>
@@ -9230,7 +9341,7 @@
         <v>25.0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>1297</v>
+        <v>1318</v>
       </c>
       <c r="R29" s="20" t="s">
         <v>474</v>
@@ -9255,7 +9366,7 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1298</v>
+        <v>1319</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>480</v>
@@ -9276,7 +9387,7 @@
         <v>26.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>1299</v>
+        <v>1320</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>486</v>
@@ -9297,7 +9408,7 @@
         <v>26.0</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>1300</v>
+        <v>1321</v>
       </c>
       <c r="R30" s="25" t="s">
         <v>492</v>
@@ -9319,7 +9430,7 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="57"/>
       <c r="B31" s="28" t="s">
-        <v>1301</v>
+        <v>1322</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>567</v>
@@ -9340,10 +9451,10 @@
         <v>503</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>1301</v>
+        <v>1322</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>1302</v>
+        <v>1323</v>
       </c>
       <c r="K31" s="30" t="s">
         <v>505</v>
@@ -9361,10 +9472,10 @@
         <v>509</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>1301</v>
+        <v>1322</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>1303</v>
+        <v>1324</v>
       </c>
       <c r="R31" s="30" t="s">
         <v>511</v>
@@ -9478,7 +9589,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="57"/>
       <c r="B34" s="37" t="s">
-        <v>1304</v>
+        <v>1325</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -9494,7 +9605,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>1305</v>
+        <v>1326</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>

--- a/26. ceramicPanel47/ceramicPanel47.xlsx
+++ b/26. ceramicPanel47/ceramicPanel47.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6944" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6956" uniqueCount="1339">
   <si>
     <t>personalOpinion68</t>
   </si>
@@ -3900,6 +3900,42 @@
   </si>
   <si>
     <t>climax</t>
+  </si>
+  <si>
+    <t>transcript</t>
+  </si>
+  <si>
+    <t>compress</t>
+  </si>
+  <si>
+    <t>interpret</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>calorie</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>divine</t>
+  </si>
+  <si>
+    <t>bangle</t>
+  </si>
+  <si>
+    <t>mixture</t>
+  </si>
+  <si>
+    <t>tally</t>
+  </si>
+  <si>
+    <t>duplicate</t>
   </si>
   <si>
     <t>glass</t>
@@ -4029,7 +4065,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4046,12 +4082,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor rgb="FFEA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
@@ -4501,7 +4531,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4677,12 +4707,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7520,32 +7544,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="57"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="3" t="s">
         <v>1257</v>
       </c>
@@ -7573,10 +7597,10 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="57"/>
+      <c r="W2" s="54"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="57"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -7640,10 +7664,10 @@
       <c r="V3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="57"/>
+      <c r="W3" s="54"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="57"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="8" t="s">
         <v>1260</v>
       </c>
@@ -7707,10 +7731,10 @@
       <c r="V4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="57"/>
+      <c r="W4" s="54"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="57"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="13">
         <v>1.0</v>
       </c>
@@ -7774,10 +7798,10 @@
       <c r="V5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="57"/>
+      <c r="W5" s="54"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="57"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="18">
         <v>2.0</v>
       </c>
@@ -7841,10 +7865,10 @@
       <c r="V6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="57"/>
+      <c r="W6" s="54"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="57"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="18">
         <v>3.0</v>
       </c>
@@ -7908,10 +7932,10 @@
       <c r="V7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="W7" s="57"/>
+      <c r="W7" s="54"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="57"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="18">
         <v>4.0</v>
       </c>
@@ -7975,10 +7999,10 @@
       <c r="V8" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="57"/>
+      <c r="W8" s="54"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="57"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="18">
         <v>5.0</v>
       </c>
@@ -8042,10 +8066,10 @@
       <c r="V9" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="57"/>
+      <c r="W9" s="54"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="57"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="18">
         <v>6.0</v>
       </c>
@@ -8109,10 +8133,10 @@
       <c r="V10" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="W10" s="57"/>
+      <c r="W10" s="54"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="57"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="18">
         <v>7.0</v>
       </c>
@@ -8176,10 +8200,10 @@
       <c r="V11" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="W11" s="57"/>
+      <c r="W11" s="54"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="57"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="18">
         <v>8.0</v>
       </c>
@@ -8243,10 +8267,10 @@
       <c r="V12" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="W12" s="57"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="57"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="18">
         <v>9.0</v>
       </c>
@@ -8310,10 +8334,10 @@
       <c r="V13" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="W13" s="57"/>
+      <c r="W13" s="54"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="18">
         <v>10.0</v>
       </c>
@@ -8377,10 +8401,10 @@
       <c r="V14" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="W14" s="57"/>
+      <c r="W14" s="54"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="57"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="18">
         <v>11.0</v>
       </c>
@@ -8444,14 +8468,16 @@
       <c r="V15" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="W15" s="57"/>
+      <c r="W15" s="54"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="57"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="18">
         <v>12.0</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>1293</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>228</v>
       </c>
@@ -8470,7 +8496,9 @@
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
-      <c r="J16" s="19"/>
+      <c r="J16" s="19" t="s">
+        <v>1294</v>
+      </c>
       <c r="K16" s="20" t="s">
         <v>234</v>
       </c>
@@ -8489,7 +8517,9 @@
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="19" t="s">
+        <v>1295</v>
+      </c>
       <c r="R16" s="20" t="s">
         <v>240</v>
       </c>
@@ -8505,14 +8535,16 @@
       <c r="V16" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="W16" s="57"/>
+      <c r="W16" s="54"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="57"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="18">
         <v>13.0</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>1296</v>
+      </c>
       <c r="D17" s="20" t="s">
         <v>246</v>
       </c>
@@ -8531,7 +8563,9 @@
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
-      <c r="J17" s="19"/>
+      <c r="J17" s="19" t="s">
+        <v>1297</v>
+      </c>
       <c r="K17" s="20" t="s">
         <v>252</v>
       </c>
@@ -8550,7 +8584,9 @@
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="19" t="s">
+        <v>1298</v>
+      </c>
       <c r="R17" s="20" t="s">
         <v>258</v>
       </c>
@@ -8566,14 +8602,16 @@
       <c r="V17" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="W17" s="57"/>
+      <c r="W17" s="54"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="57"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="18">
         <v>14.0</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>1299</v>
+      </c>
       <c r="D18" s="20" t="s">
         <v>264</v>
       </c>
@@ -8592,7 +8630,9 @@
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="19" t="s">
+        <v>1300</v>
+      </c>
       <c r="K18" s="20" t="s">
         <v>270</v>
       </c>
@@ -8611,7 +8651,9 @@
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="19" t="s">
+        <v>1301</v>
+      </c>
       <c r="R18" s="20" t="s">
         <v>276</v>
       </c>
@@ -8627,14 +8669,16 @@
       <c r="V18" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="W18" s="57"/>
+      <c r="W18" s="54"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="18">
         <v>15.0</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>1302</v>
+      </c>
       <c r="D19" s="20" t="s">
         <v>282</v>
       </c>
@@ -8653,7 +8697,9 @@
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="19" t="s">
+        <v>1303</v>
+      </c>
       <c r="K19" s="20" t="s">
         <v>288</v>
       </c>
@@ -8672,7 +8718,9 @@
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
-      <c r="Q19" s="19"/>
+      <c r="Q19" s="19" t="s">
+        <v>1304</v>
+      </c>
       <c r="R19" s="20" t="s">
         <v>294</v>
       </c>
@@ -8688,10 +8736,10 @@
       <c r="V19" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="W19" s="57"/>
+      <c r="W19" s="54"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="18">
         <v>16.0</v>
       </c>
@@ -8717,7 +8765,7 @@
         <v>16.0</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>1293</v>
+        <v>1305</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>306</v>
@@ -8738,7 +8786,7 @@
         <v>16.0</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
       <c r="R20" s="20" t="s">
         <v>312</v>
@@ -8755,15 +8803,15 @@
       <c r="V20" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="W20" s="57"/>
+      <c r="W20" s="54"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="57"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="18">
         <v>17.0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>318</v>
@@ -8805,7 +8853,7 @@
         <v>17.0</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
       <c r="R21" s="20" t="s">
         <v>330</v>
@@ -8822,15 +8870,15 @@
       <c r="V21" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="W21" s="57"/>
+      <c r="W21" s="54"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="57"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="18">
         <v>18.0</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>336</v>
@@ -8851,7 +8899,7 @@
         <v>18.0</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
       <c r="K22" s="20" t="s">
         <v>342</v>
@@ -8872,7 +8920,7 @@
         <v>18.0</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
       <c r="R22" s="20" t="s">
         <v>348</v>
@@ -8889,15 +8937,15 @@
       <c r="V22" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="W22" s="57"/>
+      <c r="W22" s="54"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="57"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="18">
         <v>19.0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>354</v>
@@ -8918,7 +8966,7 @@
         <v>19.0</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>360</v>
@@ -8939,7 +8987,7 @@
         <v>19.0</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="R23" s="20" t="s">
         <v>366</v>
@@ -8956,15 +9004,15 @@
       <c r="V23" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="W23" s="57"/>
+      <c r="W23" s="54"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="57"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="18">
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>372</v>
@@ -8985,7 +9033,7 @@
         <v>20.0</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
       <c r="K24" s="20" t="s">
         <v>378</v>
@@ -9006,7 +9054,7 @@
         <v>20.0</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="R24" s="20" t="s">
         <v>384</v>
@@ -9023,10 +9071,10 @@
       <c r="V24" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="W24" s="57"/>
+      <c r="W24" s="54"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="57"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="18">
         <v>21.0</v>
       </c>
@@ -9052,7 +9100,7 @@
         <v>21.0</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>396</v>
@@ -9073,7 +9121,7 @@
         <v>21.0</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="R25" s="20" t="s">
         <v>402</v>
@@ -9090,15 +9138,15 @@
       <c r="V25" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="W25" s="57"/>
+      <c r="W25" s="54"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="57"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="18">
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>408</v>
@@ -9119,7 +9167,7 @@
         <v>22.0</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>414</v>
@@ -9140,7 +9188,7 @@
         <v>22.0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="R26" s="20" t="s">
         <v>420</v>
@@ -9157,15 +9205,15 @@
       <c r="V26" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="W26" s="57"/>
+      <c r="W26" s="54"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="57"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="18">
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>426</v>
@@ -9186,7 +9234,7 @@
         <v>23.0</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>432</v>
@@ -9207,7 +9255,7 @@
         <v>23.0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
       <c r="R27" s="20" t="s">
         <v>438</v>
@@ -9224,15 +9272,15 @@
       <c r="V27" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="W27" s="57"/>
+      <c r="W27" s="54"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="57"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="18">
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>444</v>
@@ -9253,7 +9301,7 @@
         <v>24.0</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>450</v>
@@ -9291,15 +9339,15 @@
       <c r="V28" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="W28" s="57"/>
+      <c r="W28" s="54"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="57"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="18">
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>462</v>
@@ -9320,7 +9368,7 @@
         <v>25.0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>1317</v>
+        <v>1329</v>
       </c>
       <c r="K29" s="20" t="s">
         <v>468</v>
@@ -9341,7 +9389,7 @@
         <v>25.0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="R29" s="20" t="s">
         <v>474</v>
@@ -9358,15 +9406,15 @@
       <c r="V29" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="W29" s="57"/>
+      <c r="W29" s="54"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="57"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="23">
         <v>26.0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>480</v>
@@ -9387,7 +9435,7 @@
         <v>26.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>486</v>
@@ -9408,7 +9456,7 @@
         <v>26.0</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="R30" s="25" t="s">
         <v>492</v>
@@ -9425,12 +9473,12 @@
       <c r="V30" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="W30" s="57"/>
+      <c r="W30" s="54"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="57"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="28" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>567</v>
@@ -9451,10 +9499,10 @@
         <v>503</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
       <c r="K31" s="30" t="s">
         <v>505</v>
@@ -9472,10 +9520,10 @@
         <v>509</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="R31" s="30" t="s">
         <v>511</v>
@@ -9492,10 +9540,10 @@
       <c r="V31" s="32" t="s">
         <v>515</v>
       </c>
-      <c r="W31" s="57"/>
+      <c r="W31" s="54"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="57"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="33" t="s">
         <v>516</v>
       </c>
@@ -9559,10 +9607,10 @@
       <c r="V32" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="W32" s="57"/>
+      <c r="W32" s="54"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="57"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -9584,12 +9632,12 @@
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
-      <c r="W33" s="57"/>
+      <c r="W33" s="54"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="57"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="37" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -9605,7 +9653,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>1326</v>
+        <v>1338</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -9613,10 +9661,10 @@
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
-      <c r="W34" s="57"/>
+      <c r="W34" s="54"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="57"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="39" t="s">
         <v>3</v>
       </c>
@@ -9642,10 +9690,10 @@
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
-      <c r="W35" s="57"/>
+      <c r="W35" s="54"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="57"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="40" t="s">
         <v>525</v>
       </c>
@@ -9675,10 +9723,10 @@
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
-      <c r="W36" s="57"/>
+      <c r="W36" s="54"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="57"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="13" t="s">
         <v>526</v>
       </c>
@@ -9712,10 +9760,10 @@
       <c r="T37" s="36"/>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
-      <c r="W37" s="57"/>
+      <c r="W37" s="54"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="57"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="13" t="s">
         <v>529</v>
       </c>
@@ -9753,10 +9801,10 @@
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
-      <c r="W38" s="57"/>
+      <c r="W38" s="54"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="57"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="13" t="s">
         <v>149</v>
       </c>
@@ -9798,10 +9846,10 @@
       </c>
       <c r="U39" s="38"/>
       <c r="V39" s="38"/>
-      <c r="W39" s="57"/>
+      <c r="W39" s="54"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="57"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="13" t="s">
         <v>540</v>
       </c>
@@ -9847,10 +9895,10 @@
         <v>8</v>
       </c>
       <c r="V40" s="38"/>
-      <c r="W40" s="57"/>
+      <c r="W40" s="54"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="57"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="13" t="s">
         <v>549</v>
       </c>
@@ -9900,10 +9948,10 @@
       <c r="V41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="W41" s="57"/>
+      <c r="W41" s="54"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="57"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="47" t="s">
         <v>559</v>
       </c>
@@ -9953,10 +10001,10 @@
       <c r="V42" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="W42" s="57"/>
+      <c r="W42" s="54"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="57"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="33" t="s">
         <v>516</v>
       </c>
@@ -10006,32 +10054,32 @@
       <c r="V43" s="53" t="s">
         <v>522</v>
       </c>
-      <c r="W43" s="57"/>
+      <c r="W43" s="54"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -10063,32 +10111,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="59"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -10110,10 +10158,10 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="59"/>
+      <c r="W2" s="57"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -10177,10 +10225,10 @@
       <c r="V3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="59"/>
+      <c r="W3" s="57"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
@@ -10232,10 +10280,10 @@
       <c r="V4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="59"/>
+      <c r="W4" s="57"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="59"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="13">
         <v>1.0</v>
       </c>
@@ -10293,10 +10341,10 @@
       <c r="V5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="59"/>
+      <c r="W5" s="57"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="59"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="18">
         <v>2.0</v>
       </c>
@@ -10354,10 +10402,10 @@
       <c r="V6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="W6" s="59"/>
+      <c r="W6" s="57"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="18">
         <v>3.0</v>
       </c>
@@ -10415,10 +10463,10 @@
       <c r="V7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="W7" s="59"/>
+      <c r="W7" s="57"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="18">
         <v>4.0</v>
       </c>
@@ -10476,10 +10524,10 @@
       <c r="V8" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="59"/>
+      <c r="W8" s="57"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="18">
         <v>5.0</v>
       </c>
@@ -10537,10 +10585,10 @@
       <c r="V9" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="59"/>
+      <c r="W9" s="57"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="18">
         <v>6.0</v>
       </c>
@@ -10598,10 +10646,10 @@
       <c r="V10" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="W10" s="59"/>
+      <c r="W10" s="57"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="18">
         <v>7.0</v>
       </c>
@@ -10659,10 +10707,10 @@
       <c r="V11" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="W11" s="59"/>
+      <c r="W11" s="57"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="59"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="18">
         <v>8.0</v>
       </c>
@@ -10720,10 +10768,10 @@
       <c r="V12" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="W12" s="59"/>
+      <c r="W12" s="57"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="59"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="18">
         <v>9.0</v>
       </c>
@@ -10781,10 +10829,10 @@
       <c r="V13" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="W13" s="59"/>
+      <c r="W13" s="57"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="59"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="18">
         <v>10.0</v>
       </c>
@@ -10842,10 +10890,10 @@
       <c r="V14" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="W14" s="59"/>
+      <c r="W14" s="57"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="59"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="18">
         <v>11.0</v>
       </c>
@@ -10903,10 +10951,10 @@
       <c r="V15" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="W15" s="59"/>
+      <c r="W15" s="57"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="59"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="18">
         <v>12.0</v>
       </c>
@@ -10964,10 +11012,10 @@
       <c r="V16" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="W16" s="59"/>
+      <c r="W16" s="57"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="18">
         <v>13.0</v>
       </c>
@@ -11025,10 +11073,10 @@
       <c r="V17" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="W17" s="59"/>
+      <c r="W17" s="57"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="18">
         <v>14.0</v>
       </c>
@@ -11086,10 +11134,10 @@
       <c r="V18" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="W18" s="59"/>
+      <c r="W18" s="57"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="59"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="18">
         <v>15.0</v>
       </c>
@@ -11147,10 +11195,10 @@
       <c r="V19" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="W19" s="59"/>
+      <c r="W19" s="57"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="59"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="18">
         <v>16.0</v>
       </c>
@@ -11208,10 +11256,10 @@
       <c r="V20" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="W20" s="59"/>
+      <c r="W20" s="57"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="59"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="18">
         <v>17.0</v>
       </c>
@@ -11269,10 +11317,10 @@
       <c r="V21" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="W21" s="59"/>
+      <c r="W21" s="57"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="59"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="18">
         <v>18.0</v>
       </c>
@@ -11330,10 +11378,10 @@
       <c r="V22" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="W22" s="59"/>
+      <c r="W22" s="57"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="59"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="18">
         <v>19.0</v>
       </c>
@@ -11391,10 +11439,10 @@
       <c r="V23" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="W23" s="59"/>
+      <c r="W23" s="57"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="59"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="18">
         <v>20.0</v>
       </c>
@@ -11452,10 +11500,10 @@
       <c r="V24" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="W24" s="59"/>
+      <c r="W24" s="57"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="59"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="18">
         <v>21.0</v>
       </c>
@@ -11513,10 +11561,10 @@
       <c r="V25" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="W25" s="59"/>
+      <c r="W25" s="57"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="59"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="18">
         <v>22.0</v>
       </c>
@@ -11574,10 +11622,10 @@
       <c r="V26" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="W26" s="59"/>
+      <c r="W26" s="57"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="59"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="18">
         <v>23.0</v>
       </c>
@@ -11635,10 +11683,10 @@
       <c r="V27" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="W27" s="59"/>
+      <c r="W27" s="57"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="59"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="18">
         <v>24.0</v>
       </c>
@@ -11696,10 +11744,10 @@
       <c r="V28" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="W28" s="59"/>
+      <c r="W28" s="57"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="59"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="18">
         <v>25.0</v>
       </c>
@@ -11757,10 +11805,10 @@
       <c r="V29" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="W29" s="59"/>
+      <c r="W29" s="57"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="59"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="23">
         <v>26.0</v>
       </c>
@@ -11818,10 +11866,10 @@
       <c r="V30" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="W30" s="59"/>
+      <c r="W30" s="57"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="59"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
       <c r="D31" s="30" t="s">
@@ -11873,10 +11921,10 @@
       <c r="V31" s="32" t="s">
         <v>515</v>
       </c>
-      <c r="W31" s="59"/>
+      <c r="W31" s="57"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="59"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="33" t="s">
         <v>516</v>
       </c>
@@ -11940,10 +11988,10 @@
       <c r="V32" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="W32" s="59"/>
+      <c r="W32" s="57"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="59"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
@@ -11965,10 +12013,10 @@
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
-      <c r="W33" s="59"/>
+      <c r="W33" s="57"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="59"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="37"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -11990,10 +12038,10 @@
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
-      <c r="W34" s="59"/>
+      <c r="W34" s="57"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="59"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="39" t="s">
         <v>3</v>
       </c>
@@ -12019,10 +12067,10 @@
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
-      <c r="W35" s="59"/>
+      <c r="W35" s="57"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="59"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="40" t="s">
         <v>525</v>
       </c>
@@ -12052,10 +12100,10 @@
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
-      <c r="W36" s="59"/>
+      <c r="W36" s="57"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="59"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="13" t="s">
         <v>526</v>
       </c>
@@ -12089,10 +12137,10 @@
       <c r="T37" s="36"/>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
-      <c r="W37" s="59"/>
+      <c r="W37" s="57"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="59"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="13" t="s">
         <v>529</v>
       </c>
@@ -12130,10 +12178,10 @@
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
-      <c r="W38" s="59"/>
+      <c r="W38" s="57"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="59"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="13" t="s">
         <v>149</v>
       </c>
@@ -12175,10 +12223,10 @@
       </c>
       <c r="U39" s="38"/>
       <c r="V39" s="38"/>
-      <c r="W39" s="59"/>
+      <c r="W39" s="57"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="59"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="13" t="s">
         <v>540</v>
       </c>
@@ -12224,10 +12272,10 @@
         <v>8</v>
       </c>
       <c r="V40" s="38"/>
-      <c r="W40" s="59"/>
+      <c r="W40" s="57"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="59"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="13" t="s">
         <v>549</v>
       </c>
@@ -12277,10 +12325,10 @@
       <c r="V41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="W41" s="59"/>
+      <c r="W41" s="57"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="59"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="47" t="s">
         <v>559</v>
       </c>
@@ -12330,10 +12378,10 @@
       <c r="V42" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="W42" s="59"/>
+      <c r="W42" s="57"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="59"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="33" t="s">
         <v>516</v>
       </c>
@@ -12383,32 +12431,32 @@
       <c r="V43" s="53" t="s">
         <v>522</v>
       </c>
-      <c r="W43" s="59"/>
+      <c r="W43" s="57"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/26. ceramicPanel47/ceramicPanel47.xlsx
+++ b/26. ceramicPanel47/ceramicPanel47.xlsx
@@ -13,7 +13,8 @@
     <sheet state="visible" name="8. binaryLizard49" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="9. objectParadise50" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="10. noSingular45" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="26. cashPack31" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="11. bufferBounce47" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="26. cashPack31" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6956" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7519" uniqueCount="1348">
   <si>
     <t>personalOpinion68</t>
   </si>
@@ -4038,6 +4039,33 @@
   </si>
   <si>
     <t>backEndTechnique57</t>
+  </si>
+  <si>
+    <t>profitNational59</t>
+  </si>
+  <si>
+    <t>commentSanctuary66</t>
+  </si>
+  <si>
+    <t>showDomestic51</t>
+  </si>
+  <si>
+    <t>translate</t>
+  </si>
+  <si>
+    <t>disk</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>systematic</t>
+  </si>
+  <si>
+    <t>doRainbow37</t>
+  </si>
+  <si>
+    <t>senseFog34</t>
   </si>
 </sst>
 </file>
@@ -4065,7 +4093,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4082,6 +4110,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
@@ -4531,7 +4565,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4709,6 +4743,12 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4726,6 +4766,10 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -10137,21 +10181,27 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="57"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>1339</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>1340</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>1341</v>
+      </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -10229,8 +10279,12 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="57"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1342</v>
+      </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
@@ -10246,8 +10300,12 @@
       <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>870</v>
+      </c>
       <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
@@ -10263,8 +10321,12 @@
       <c r="O4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
+      <c r="P4" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="R4" s="10" t="s">
         <v>24</v>
       </c>
@@ -11870,8 +11932,12 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="57"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="28" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>89</v>
+      </c>
       <c r="D31" s="30" t="s">
         <v>499</v>
       </c>
@@ -11887,8 +11953,12 @@
       <c r="H31" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
+      <c r="I31" s="28" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>1344</v>
+      </c>
       <c r="K31" s="30" t="s">
         <v>505</v>
       </c>
@@ -11904,8 +11974,12 @@
       <c r="O31" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="29"/>
+      <c r="P31" s="28" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>1345</v>
+      </c>
       <c r="R31" s="30" t="s">
         <v>511</v>
       </c>
@@ -12017,7 +12091,9 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="57"/>
-      <c r="B34" s="37"/>
+      <c r="B34" s="37" t="s">
+        <v>1346</v>
+      </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -12031,7 +12107,9 @@
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
-      <c r="P34" s="37"/>
+      <c r="P34" s="37" t="s">
+        <v>1347</v>
+      </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
@@ -12457,6 +12535,2383 @@
       <c r="U44" s="57"/>
       <c r="V44" s="57"/>
       <c r="W44" s="57"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.75"/>
+    <col customWidth="1" min="2" max="2" width="22.63"/>
+    <col customWidth="1" min="3" max="3" width="12.63"/>
+    <col customWidth="1" min="9" max="9" width="22.63"/>
+    <col customWidth="1" min="10" max="10" width="12.63"/>
+    <col customWidth="1" min="16" max="16" width="22.63"/>
+    <col customWidth="1" min="17" max="17" width="12.63"/>
+    <col customWidth="1" min="23" max="23" width="2.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="59"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="59"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="59"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="59"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="59"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="59"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="59"/>
+      <c r="B6" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="59"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="59"/>
+      <c r="B7" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7" s="59"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="59"/>
+      <c r="B8" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="V8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="W8" s="59"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" s="59"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="59"/>
+      <c r="B10" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="18">
+        <v>6.0</v>
+      </c>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="W10" s="59"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="59"/>
+      <c r="B11" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="P11" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="V11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="W11" s="59"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="59"/>
+      <c r="B12" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="P12" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="V12" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="W12" s="59"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="59"/>
+      <c r="B13" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="W13" s="59"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="59"/>
+      <c r="B14" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="T14" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="U14" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="V14" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="W14" s="59"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="59"/>
+      <c r="B15" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="P15" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="V15" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="W15" s="59"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="59"/>
+      <c r="B16" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="I16" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="V16" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="W16" s="59"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="I17" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="P17" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="V17" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="W17" s="59"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="59"/>
+      <c r="B18" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="I18" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="P18" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="S18" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="T18" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="U18" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="V18" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="W18" s="59"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="59"/>
+      <c r="B19" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I19" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="P19" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="V19" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="W19" s="59"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="59"/>
+      <c r="B20" s="18">
+        <v>16.0</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I20" s="18">
+        <v>16.0</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="P20" s="18">
+        <v>16.0</v>
+      </c>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="W20" s="59"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="59"/>
+      <c r="B21" s="18">
+        <v>17.0</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" s="18">
+        <v>17.0</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="P21" s="18">
+        <v>17.0</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="V21" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="W21" s="59"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="59"/>
+      <c r="B22" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="P22" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="V22" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="W22" s="59"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="59"/>
+      <c r="B23" s="18">
+        <v>19.0</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="I23" s="18">
+        <v>19.0</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="P23" s="18">
+        <v>19.0</v>
+      </c>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="V23" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="W23" s="59"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="59"/>
+      <c r="B24" s="18">
+        <v>20.0</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="I24" s="18">
+        <v>20.0</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="P24" s="18">
+        <v>20.0</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="V24" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="W24" s="59"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="59"/>
+      <c r="B25" s="18">
+        <v>21.0</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="I25" s="18">
+        <v>21.0</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="P25" s="18">
+        <v>21.0</v>
+      </c>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="V25" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="W25" s="59"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="59"/>
+      <c r="B26" s="18">
+        <v>22.0</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="I26" s="18">
+        <v>22.0</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="P26" s="18">
+        <v>22.0</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="U26" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="V26" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="W26" s="59"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="59"/>
+      <c r="B27" s="18">
+        <v>23.0</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="I27" s="18">
+        <v>23.0</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="P27" s="18">
+        <v>23.0</v>
+      </c>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="W27" s="59"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="59"/>
+      <c r="B28" s="18">
+        <v>24.0</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="I28" s="18">
+        <v>24.0</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="P28" s="18">
+        <v>24.0</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="S28" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="T28" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="V28" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="W28" s="59"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="59"/>
+      <c r="B29" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="I29" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="P29" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="V29" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="W29" s="59"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="59"/>
+      <c r="B30" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="I30" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="N30" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="P30" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="S30" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="T30" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="U30" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="V30" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="W30" s="59"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="59"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="S31" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="T31" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="U31" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="V31" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="W31" s="59"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="59"/>
+      <c r="B32" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="O32" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q32" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="R32" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="S32" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="T32" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="U32" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="V32" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="W32" s="59"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="59"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="59"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="59"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="59"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="59"/>
+      <c r="B35" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="59"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="59"/>
+      <c r="B36" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q36" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="59"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="59"/>
+      <c r="B37" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q37" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="R37" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37" s="38"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="59"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="59"/>
+      <c r="B38" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q38" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="R38" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="S38" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="59"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="59"/>
+      <c r="B39" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q39" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="R39" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="S39" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="T39" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="59"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="59"/>
+      <c r="B40" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="38"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q40" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="R40" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="S40" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="T40" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="U40" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="V40" s="38"/>
+      <c r="W40" s="59"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="59"/>
+      <c r="B41" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="45"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q41" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="R41" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="S41" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="T41" s="46" t="s">
+        <v>557</v>
+      </c>
+      <c r="U41" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="V41" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W41" s="59"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="59"/>
+      <c r="B42" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="I42" s="45"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="47" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q42" s="48" t="s">
+        <v>565</v>
+      </c>
+      <c r="R42" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="S42" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="T42" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="U42" s="50" t="s">
+        <v>568</v>
+      </c>
+      <c r="V42" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="W42" s="59"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="59"/>
+      <c r="B43" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q43" s="52" t="s">
+        <v>517</v>
+      </c>
+      <c r="R43" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="S43" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="T43" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="U43" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="V43" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="W43" s="59"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
